--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1714.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1714.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6221410830228951</v>
+        <v>0.8334118723869324</v>
       </c>
       <c r="B1">
+        <v>2.043908596038818</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>3.367412354045681</v>
-      </c>
       <c r="D1">
-        <v>1.918376636933705</v>
+        <v>1.611337423324585</v>
       </c>
       <c r="E1">
-        <v>1.458531192269258</v>
+        <v>0.4790465831756592</v>
       </c>
     </row>
   </sheetData>
